--- a/figures/ch6_diodes/DiodeIVJupyter.xlsx
+++ b/figures/ch6_diodes/DiodeIVJupyter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\texts\ElectronicsLab\figures\ch6_diodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9240AEE6-D022-4DCA-9DA4-FDED6FCB9FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67CC40-DC4F-416B-8AAB-17FAC44E08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="810" windowWidth="23355" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zener" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -147,13 +147,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{F5282B17-575B-4BB9-A2C2-34684EBAA59A}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1518,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3298,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F0A254-A007-49DC-951D-1CD31B7A73C2}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/figures/ch6_diodes/DiodeIVJupyter.xlsx
+++ b/figures/ch6_diodes/DiodeIVJupyter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Teaching\texts\ElectronicsLab\figures\ch6_diodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E67CC40-DC4F-416B-8AAB-17FAC44E08FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5457FBBC-FF03-4DD4-8A84-56953C85C4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="810" windowWidth="23355" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31770" yWindow="2610" windowWidth="23355" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="zener" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Vin</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>Vo</t>
   </si>
 </sst>
 </file>
@@ -1518,17 +1521,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="G1" sqref="G1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1540,7 +1543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-5</v>
       </c>
@@ -1548,442 +1551,738 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <f>A2-B2</f>
         <v>-5</v>
       </c>
-      <c r="D2">
-        <f>B2/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="7">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>-4.8</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>-4.8</v>
+      </c>
+      <c r="D3" s="7">
+        <v>-6.7999999999999996E-3</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D4" s="7">
+        <v>-5.5999999999999999E-3</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="D5" s="7">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-4.2</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-4.2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>-4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C29" si="0">A3-B3</f>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>-4</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D29" si="1">B3/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D7" s="7">
+        <v>-2E-3</v>
+      </c>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-3.8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-3.8</v>
+      </c>
+      <c r="D8" s="7">
+        <v>-1.5E-3</v>
+      </c>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-3.6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-3.6</v>
+      </c>
+      <c r="D9" s="7">
+        <v>-1E-3</v>
+      </c>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-3.4</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-3.4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-3.2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>-3.2</v>
+      </c>
+      <c r="D11" s="7">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>-3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>-3</v>
       </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D12" s="7">
+        <v>-3.5E-4</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-2.8</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-2.8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>-2.2000000000000001E-4</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-2.6</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-2.6</v>
+      </c>
+      <c r="D14" s="7">
+        <v>-1.8000000000000001E-4</v>
+      </c>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-2.4</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>-2.4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-8.0000000000000007E-5</v>
+      </c>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>-2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>-2</v>
       </c>
-      <c r="D5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-1.8</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>-1.8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-1.6</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>-1.6</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-1.4</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-1.4</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-1.2</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-1.2</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>-1</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>-1</v>
       </c>
-      <c r="D6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-0.8</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-0.8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-0.6</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-0.6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-0.4</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-0.4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-0.2</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-0.2</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C24:C49" si="0">A27-B27</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D24:D49" si="1">B27/1000</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>0.1</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>0.2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B29" s="1">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="C9">
+      <c r="C29">
         <f t="shared" si="0"/>
         <v>0.19970000000000002</v>
       </c>
-      <c r="D9">
+      <c r="D29">
         <f t="shared" si="1"/>
         <v>2.9999999999999999E-7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>0.3</v>
       </c>
-      <c r="B10">
+      <c r="B30">
         <v>1.9E-3</v>
       </c>
-      <c r="C10">
+      <c r="C30">
         <f t="shared" si="0"/>
         <v>0.29809999999999998</v>
       </c>
-      <c r="D10">
+      <c r="D30">
         <f t="shared" si="1"/>
         <v>1.9E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>0.4</v>
       </c>
-      <c r="B11">
+      <c r="B31">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="C11">
+      <c r="C31">
         <f t="shared" si="0"/>
         <v>0.38870000000000005</v>
       </c>
-      <c r="D11">
+      <c r="D31">
         <f t="shared" si="1"/>
         <v>1.1299999999999999E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>0.5</v>
       </c>
-      <c r="B12">
+      <c r="B32">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="C12">
+      <c r="C32">
         <f t="shared" si="0"/>
         <v>0.45600000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D32">
         <f t="shared" si="1"/>
         <v>4.3999999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>0.6</v>
       </c>
-      <c r="B13">
+      <c r="B33">
         <v>0.10199999999999999</v>
       </c>
-      <c r="C13">
+      <c r="C33">
         <f t="shared" si="0"/>
         <v>0.498</v>
       </c>
-      <c r="D13">
+      <c r="D33">
         <f t="shared" si="1"/>
         <v>1.02E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>0.7</v>
       </c>
-      <c r="B14">
+      <c r="B34">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C14">
+      <c r="C34">
         <f t="shared" si="0"/>
         <v>0.52600000000000002</v>
       </c>
-      <c r="D14">
+      <c r="D34">
         <f t="shared" si="1"/>
         <v>1.74E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>0.8</v>
       </c>
-      <c r="B15">
+      <c r="B35">
         <v>0.25600000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C35">
         <f t="shared" si="0"/>
         <v>0.54400000000000004</v>
       </c>
-      <c r="D15">
+      <c r="D35">
         <f t="shared" si="1"/>
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>0.9</v>
       </c>
-      <c r="B16">
+      <c r="B36">
         <v>0.34599999999999997</v>
       </c>
-      <c r="C16">
+      <c r="C36">
         <f t="shared" si="0"/>
         <v>0.55400000000000005</v>
       </c>
-      <c r="D16">
+      <c r="D36">
         <f t="shared" si="1"/>
         <v>3.4599999999999995E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B37">
         <v>0.43</v>
       </c>
-      <c r="C17">
+      <c r="C37">
         <f t="shared" si="0"/>
         <v>0.57000000000000006</v>
       </c>
-      <c r="D17">
+      <c r="D37">
         <f t="shared" si="1"/>
         <v>4.2999999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>1.25</v>
       </c>
-      <c r="B18">
+      <c r="B38">
         <v>0.66300000000000003</v>
       </c>
-      <c r="C18">
+      <c r="C38">
         <f t="shared" si="0"/>
         <v>0.58699999999999997</v>
       </c>
-      <c r="D18">
+      <c r="D38">
         <f t="shared" si="1"/>
         <v>6.6300000000000007E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1.5</v>
       </c>
-      <c r="B19">
+      <c r="B39">
         <v>0.89500000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C39">
         <f t="shared" si="0"/>
         <v>0.60499999999999998</v>
       </c>
-      <c r="D19">
+      <c r="D39">
         <f t="shared" si="1"/>
         <v>8.9500000000000007E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>1.75</v>
       </c>
-      <c r="B20">
+      <c r="B40">
         <v>1.137</v>
       </c>
-      <c r="C20">
+      <c r="C40">
         <f t="shared" si="0"/>
         <v>0.61299999999999999</v>
       </c>
-      <c r="D20">
+      <c r="D40">
         <f t="shared" si="1"/>
         <v>1.137E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>2</v>
       </c>
-      <c r="B21">
+      <c r="B41">
         <v>1.36</v>
       </c>
-      <c r="C21">
+      <c r="C41">
         <f t="shared" si="0"/>
         <v>0.6399999999999999</v>
       </c>
-      <c r="D21">
+      <c r="D41">
         <f t="shared" si="1"/>
         <v>1.3600000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>3</v>
       </c>
-      <c r="B22">
+      <c r="B42">
         <v>2.34</v>
       </c>
-      <c r="C22">
+      <c r="C42">
         <f t="shared" si="0"/>
         <v>0.66000000000000014</v>
       </c>
-      <c r="D22">
+      <c r="D42">
         <f t="shared" si="1"/>
         <v>2.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B43">
         <v>3.33</v>
       </c>
-      <c r="C23">
+      <c r="C43">
         <f t="shared" si="0"/>
         <v>0.66999999999999993</v>
       </c>
-      <c r="D23">
+      <c r="D43">
         <f t="shared" si="1"/>
         <v>3.3300000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="B44">
         <v>4.32</v>
       </c>
-      <c r="C24">
+      <c r="C44">
         <f t="shared" si="0"/>
         <v>0.67999999999999972</v>
       </c>
-      <c r="D24">
+      <c r="D44">
         <f t="shared" si="1"/>
         <v>4.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>6</v>
       </c>
-      <c r="B25">
+      <c r="B45">
         <v>5.31</v>
       </c>
-      <c r="C25">
+      <c r="C45">
         <f t="shared" si="0"/>
         <v>0.69000000000000039</v>
       </c>
-      <c r="D25">
+      <c r="D45">
         <f t="shared" si="1"/>
         <v>5.3099999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>7</v>
       </c>
-      <c r="B26">
+      <c r="B46">
         <v>6.29</v>
       </c>
-      <c r="C26">
+      <c r="C46">
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-      <c r="D26">
+      <c r="D46">
         <f t="shared" si="1"/>
         <v>6.2900000000000005E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>8</v>
       </c>
-      <c r="B27">
+      <c r="B47">
         <v>7.28</v>
       </c>
-      <c r="C27">
+      <c r="C47">
         <f t="shared" si="0"/>
         <v>0.71999999999999975</v>
       </c>
-      <c r="D27">
+      <c r="D47">
         <f t="shared" si="1"/>
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="B48">
         <v>8.2799999999999994</v>
       </c>
-      <c r="C28">
+      <c r="C48">
         <f t="shared" si="0"/>
         <v>0.72000000000000064</v>
       </c>
-      <c r="D28">
+      <c r="D48">
         <f t="shared" si="1"/>
         <v>8.2799999999999992E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="B49">
         <v>9.27</v>
       </c>
-      <c r="C29">
+      <c r="C49">
         <f t="shared" si="0"/>
         <v>0.73000000000000043</v>
       </c>
-      <c r="D29">
+      <c r="D49">
         <f t="shared" si="1"/>
         <v>9.2699999999999987E-3</v>
       </c>
@@ -3300,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F0A254-A007-49DC-951D-1CD31B7A73C2}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:B35"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
